--- a/UKE_porownanie_pytan.xlsx
+++ b/UKE_porownanie_pytan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\PycharmProjects\skrypty\UKE-nowe-pytania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A67B973-2A77-4705-8A0A-78A7C265A430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FAF325-4524-4CCE-9550-E7B028E851EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9942" uniqueCount="3701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9944" uniqueCount="3701">
   <si>
     <r>
       <t xml:space="preserve">Siła elektromotoryczna ogniwa wynosi 1,5 V. </t>
@@ -47815,7 +47815,9 @@
       <c r="G619" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H619" s="1"/>
+      <c r="H619" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I619" s="1"/>
     </row>
     <row r="620" spans="1:9" x14ac:dyDescent="0.25">
@@ -59898,7 +59900,9 @@
       <c r="F496" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G496" s="1"/>
+      <c r="G496" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="H496" s="1"/>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">

--- a/UKE_porownanie_pytan.xlsx
+++ b/UKE_porownanie_pytan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\PycharmProjects\skrypty\UKE-nowe-pytania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A84D18-1880-4660-BB62-868784C16AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA8FB48-FC8D-4900-9101-63A6C93607D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TYTUL" sheetId="1" r:id="rId1"/>
@@ -28492,7 +28492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -28611,7 +28611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I666"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/UKE_porownanie_pytan.xlsx
+++ b/UKE_porownanie_pytan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\PycharmProjects\skrypty\UKE-nowe-pytania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3D17E4-5846-4F58-88BD-DAAA55702B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811F1F55-9AA7-4AD2-A873-C357CBA58137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">nowe!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">porownanie!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">porownanie!$A$1:$I$666</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">stare!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -20216,7 +20216,34 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">max = 100 V, zmierzonemu oscyloskopem na wyjściu nadajnika, na obciążeniu 50 </t>
+      <t>max = 100 V, zmierzonemu oscyloskopem na wyjściu nadajnika, na obciążeniu 50 Ω</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (zakładamy sygnał sinusoidalny)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Zasilacz</t>
     </r>
     <r>
       <rPr>
@@ -20228,7 +20255,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Ω</t>
+      <t xml:space="preserve"> nadajnika</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dostarcza do stopnia końcowego nadajnika napięcie 500 V i prąd 200 mA. Jaka jest sprawność energetyczna stopnia końcowego</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> w %</t>
     </r>
     <r>
       <rPr>
@@ -20240,7 +20289,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>omów (zakładamy sygnał sinusoidalny)</t>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -20250,12 +20299,796 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> jeżeli na wyjściu zmierzyliśmy moc PEP = 40 W?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Moc wyjściową nadajnika FM podano w dBW i wynosi ona 13 dBW. Ile to jest w watach?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (dla ułatwienia podajemy, że 10 dBW odpowiada 10 W</t>
+    </r>
+  </si>
+  <si>
+    <t>Zwiększając liczbę możliwych przesunięć fazy w modulacji PSK, bez zwiększania baudrate, szerokość pasma sygnału:</t>
+  </si>
+  <si>
+    <t>Modulacja cyfrowa FSK oznacza przesyłanie sygnału telegrafii maszynowej RTTY za pomocą:</t>
+  </si>
+  <si>
+    <t>W emisji RTTY używane jest:</t>
+  </si>
+  <si>
+    <t>W zbudowanym wzmacniaczu m.cz. słychać dokuczliwe zakłócenia od pobliskich telefonów komórkowych. Co można zrobić, by te zakłócenia zmniejszyć:</t>
+  </si>
+  <si>
+    <t>Sygnał prostokątny o idealnie ostrych zboczach zajmuje pasmo o szerokości:</t>
+  </si>
+  <si>
+    <t>Częstotliwość prądu przemiennego wynosi 50 Hz, jaki jest okres drgań?</t>
+  </si>
+  <si>
+    <t>Napięcie międzyszczytowe sinusoidalnego napięcia zmiennego wynosi 678 V. Ile wynosi wartość skuteczna tego napięcia?</t>
+  </si>
+  <si>
+    <t>Jeżeli składowa elektryczna fali jest prostopadła do ziemi, to fala ma polaryzację:</t>
+  </si>
+  <si>
+    <t>Prędkość rozchodzenia się fali elektromagnetycznej w ośrodku innym niż próżnia jest:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Początkujący krótkofalowiec sfrustrował się brakiem stacji w paśmie 24 MHz. Opiekun radiostacji klubowej zalecił mu przejście na "niższe" pasmo. Które pasmo powinien wybrać? </t>
+  </si>
+  <si>
+    <t>Na wyświetlaczu radiostacji z prezentacją widma można obserwować:</t>
+  </si>
+  <si>
+    <t>Który z czynników wpływa na stabilność generatora z obwodem LC:</t>
+  </si>
+  <si>
+    <t>Generator BFO jest niezbędny do odbioru:</t>
+  </si>
+  <si>
+    <t>Wzmacniacz w klasie C nie może być używany do:</t>
+  </si>
+  <si>
+    <t>Wzmacniacz, który wzmacnia sygnały w zakresie pasm amatorskich 3,5, 7 i 14 MHz z takim samym wzmocnieniem nazywamy:</t>
+  </si>
+  <si>
+    <t>Oscylator kwarcowy ma wysoką stabilność częstotliwości. Zawdzięcza ją:</t>
+  </si>
+  <si>
+    <t>Najważniejsza z cech rezonatora kwarcowego to:</t>
+  </si>
+  <si>
+    <t>Dlaczego modulacja amplitudy AM (A3E) jest obecnie rzadziej używana od SSB (J3E)?</t>
+  </si>
+  <si>
+    <r>
+      <t>Jaki</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>typowo pr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yjmuje się p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> częstotliwości </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dźw</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>przy transm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ęków</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sjach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>głoso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wy</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>star</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>za dla zrozumiałego</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> na</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ch amatorsk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a mowy?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ch:</t>
+    </r>
+  </si>
+  <si>
+    <t>Akumulator ma pojemność 20 Ah. Jak długo będzie świecić z niego żarówka pobierająca 4 A?</t>
+  </si>
+  <si>
+    <t>Akumulator ma pojemność 20Ah i pozwala na pracę pełną mocą radiostacji, która pobiera średnio około 5A. Czy taki akumulator wystarczy na trzygodzinną pracę tej radiostacji?</t>
+  </si>
+  <si>
+    <t>Jakim przyrządem możemy sprawdzić kształt napięcia zmiennego w.cz. i wykryć zniekształcenia sygnału?</t>
+  </si>
+  <si>
+    <t>Co to jest strefa martwa na falach krótkich?</t>
+  </si>
+  <si>
+    <t>O czym mówi podawana w prognozach propagacji częstotliwość MUF?</t>
+  </si>
+  <si>
+    <t>Propagacja jonosferyczna latem, w dzień, pasma radioamatorskiego 20 m, najczęściej odbywa się przez odbicie od warstwy:</t>
+  </si>
+  <si>
+    <t>Jakie długości fal zaliczamy do zakresu fal krótkich?</t>
+  </si>
+  <si>
+    <t>Kabel koncentryczny o długości 100m, przy częstotliwości 144MHz wprowadza tłumienie 12dB. Długość kabla pomiędzy nadajnikiem 100 W a anteną wynosi 50 m. Jaka część tej mocy zostanie doprowadzona do anteny?</t>
+  </si>
+  <si>
+    <r>
+      <t>Antena kierunkowa</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> na UKF w miejscu odbioru</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> daje napięcie 4 razy większe</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jak</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>niż</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dipol półfalowy</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zawieszony w tym samym miejscu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Jaki </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">zysk </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dBd</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ma antena kierunkowa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>?</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>Zasilacz</t>
+    <t>Jaka jest różnica pomiędzy efektywną mocą promieniowaną e.r.p. a efektywną mocą promieniowaną izotropowo e.i.r.p?</t>
+  </si>
+  <si>
+    <t>Zysk anteny kierunkowej wyrażony jest w dBi. Względem jakiego źródła jest określony?</t>
+  </si>
+  <si>
+    <t>Jak zmienia się oporność dipola półfalowego przy niskim zawieszeniu nad ziemią?</t>
+  </si>
+  <si>
+    <t>Jak zmienia się impedancja dipola półfalowego, gdy obniżamy wysokość jego zawieszenia?</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy nadajnika SSB na dwa pasma amatorskie z wzbudnicą 9 MHz. Blok 7 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy nadajnika SSB na dwa pasma amatorskie z wzbudnicą 9 MHz. Blok 6 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy nadajnika SSB na dwa pasma amatorskie z wzbudnicą 9 MHz. Blok 5 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy nadajnika SSB na dwa pasma amatorskie z wzbudnicą 9 MHz. Blok 4 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy nadajnika SSB na dwa pasma amatorskie z wzbudnicą 9 MHz. Blok 3 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy nadajnika telegraficznego na kilka pasm amatorskich z powielaniem częstotliwości. Blok 2 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy nadajnika telegraficznego na jedno pasmo amatorskie. Blok 3 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy nadajnika telegraficznego na jedno pasmo amatorskie. Blok 2 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy nadajnika telegraficznego na jedno pasmo amatorskie. Blok 1 to:</t>
+  </si>
+  <si>
+    <t>Przez selektywność odbiornika rozumiemy jego:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego FM na pasmo 144 MHz z podwójną przemianą częstotliwości, pracującego w kanałach fonicznych, stabilizowany kwarcami. Blok 10 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego FM na pasmo 144 MHz z podwójną przemianą częstotliwości, pracującego w kanałach fonicznych, stabilizowany kwarcami. Blok 9 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego FM na pasmo 144 MHz z podwójną przemianą częstotliwości, pracującego w kanałach fonicznych, stabilizowany kwarcami. Blok 8 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego FM na pasmo 144 MHz z podwójną przemianą częstotliwości, pracującego w kanałach fonicznych, stabilizowany kwarcami. Blok 7 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego FM na pasmo 144 MHz z podwójną przemianą częstotliwości, pracującego w kanałach fonicznych, stabilizowany kwarcami. Blok 6 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego FM na pasmo 144 MHz z podwójną przemianą częstotliwości, pracującego w kanałach fonicznych, stabilizowany kwarcami. Blok 5 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego FM na pasmo 144 MHz z podwójną przemianą częstotliwości, pracującego w kanałach fonicznych, stabilizowany kwarcami. Blok 4 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego FM na pasmo 144 MHz z podwójną przemianą częstotliwości, pracującego w kanałach fonicznych, stabilizowany kwarcami. Blok 3 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego FM na pasmo 144 MHz z podwójną przemianą częstotliwości, pracującego w kanałach fonicznych, stabilizowany kwarcami. Blok 1 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy odbiornika homodynowego CW i SSB, na jedno pasmo amatorskie. Blok 4 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy odbiornika homodynowego CW i SSB, na jedno pasmo amatorskie. Blok 3 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy odbiornika homodynowego CW i SSB, na jedno pasmo amatorskie. Blok 2 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego AM, CW, SSB z podwójną przemianą częstotliwości. Blok 11 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego AM, CW, SSB z podwójną przemianą częstotliwości. Blok 10 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego AM, CW, SSB z podwójną przemianą częstotliwości. Blok 8 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego AM, CW, SSB z podwójną przemianą częstotliwości. Blok 7 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego AM, CW, SSB z podwójną przemianą częstotliwości. Blok 6 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego AM, CW, SSB z podwójną przemianą częstotliwości. Blok 5 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego AM, CW, SSB z podwójną przemianą częstotliwości. Blok 4 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego AM, CW, SSB z podwójną przemianą częstotliwości. Blok 3 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego AM, CW, SSB z podwójną przemianą częstotliwości. Blok 2 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego AM z pojedynczą przemianą. Blok 6 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego AM z pojedynczą przemianą. Blok 4 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego AM z pojedynczą przemianą. Blok 3 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego AM z pojedynczą przemianą. Blok 2 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat stabilizacji PLL w formie ponumerowanych ale nie opisanych bloków. Blok 6 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat stabilizacji PLL w formie ponumerowanych ale nie opisanych bloków. Blok 5 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat stabilizacji PLL w formie ponumerowanych ale nie opisanych bloków. Blok 3 to:</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat stabilizacji PLL w formie ponumerowanych ale nie opisanych bloków. Blok 2 to:</t>
+  </si>
+  <si>
+    <t>Generator TCXO wysoką stabilność zawdzięcza:</t>
+  </si>
+  <si>
+    <t>Warunkiem wzbudzenia się generatora z obwodem rezonansowym jest:</t>
+  </si>
+  <si>
+    <t>Czy dyskryminator sygnału FM powinien reagować na modulację amplitudy sygnału FM?</t>
+  </si>
+  <si>
+    <t>Aby czytelnie odebrać sygnał SSB, to przy odbiorze dolnej wstęgi (LSB) sygnał odtwarzający falę nośną powinien być:</t>
+  </si>
+  <si>
+    <r>
+      <t>Dlaczego do detekcji sygnałów telegrafii CW używamy p</t>
     </r>
     <r>
       <rPr>
@@ -20267,7 +21100,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> nadajnika</t>
+      <t>rodukt detektora i p</t>
     </r>
     <r>
       <rPr>
@@ -20277,8 +21110,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> dostarcza do stopnia końcowego nadajnika napięcie 500 V i prąd 200 mA. Jaka jest sprawność energetyczna stopnia końcowego</t>
-    </r>
+      <t>omocniczego generatora BFO?</t>
+    </r>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat detektora diodowego. Jaką rolę spełnia w nim kondensator C1?</t>
+  </si>
+  <si>
+    <t>W tranzystorowym wzmacniaczu mocy który element jest niezbędny aby nie generować zakłóceń harmonicznych?</t>
+  </si>
+  <si>
+    <t>Wzmacniacz wysokiej częstotliwości obciążony obwodem rezonansowym jest:</t>
+  </si>
+  <si>
+    <t>Wzmacniacz posiada wzmocnienie napięciowe 10 razy. Wyraź to wzmocnienie w decybelach (dB)</t>
+  </si>
+  <si>
+    <t>Napięcie na wyjściu zasilacza nieobciążonego z filtrem pojemnościowym, wynosi 25 V. Jakie jest napięcie Usk transformatora zasilającego diody?</t>
+  </si>
+  <si>
+    <t>Na rysunku przedstawiono schemat prostownika. Jak nazywa się ten rodzaj prostownika?</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -20289,7 +21142,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> w %</t>
+      <t>P</t>
     </r>
     <r>
       <rPr>
@@ -20301,6 +21154,80 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Obwód rezonansowy na częstotliwość 14 MHz ma dobroć Q=100. Jaka jest szerokość p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>asm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a teg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o obwodu rezonansowego</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zależy od dobroci Q obwodu. Jeżeli Q = 100 to ile wynosi pasmo przy częstotliwości obwodu 14 MHz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>Mamy obwód rezonansowy o częstotliwości 3,5 MHz. W jego skład wchodzi pojemność C = 400 pF. Jaką pojemność należy dołączyć zamiast C, by przestroić obwód na 7 MHz?</t>
+  </si>
+  <si>
+    <r>
+      <t>Obwód rezonansowy równoległy LC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>,</t>
     </r>
     <r>
@@ -20311,12 +21238,410 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> w punkcie rezonansu przedstawia </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>im</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ość</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cję</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>124. Dwa oporniki 1 kΩ połączone są w szereg i dołączone do napięcia 200 V. Jaki jest spadek napięcia na każdym z tych oporników?</t>
+  </si>
+  <si>
+    <t>Dwie indukcyjności nie sprzężone mają 30 µH i 60 µH. Ile wynosi indukcyjność zastępcza przy połączeniu szeregowym tych indukcyjności?</t>
+  </si>
+  <si>
+    <r>
+      <t>W układzie były trzy kondensatory po 30 µF połączone szeregowo . Każdy z nich ma napięcie pracy 100V. Czy możemy je zastąpić jednym kondensatorem 10 µF</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jeśl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tak, t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o jaki</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">e </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>usi mieć</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> napięci</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pracy?</t>
+    </r>
+  </si>
+  <si>
+    <t>Mamy dwa kondensatory o pojemności jeden 4,7 nF a drugi 300 pF. Jak należy je połączyć by uzyskać pojemność 5000 pF?</t>
+  </si>
+  <si>
+    <t>W jakiej klasie wzmacniacza pracuje lampowy stopień mocy nadajnika telegraficznego?</t>
+  </si>
+  <si>
+    <t>W której klasie wzmacniacz telegraficzny ma najwyższą sprawność?</t>
+  </si>
+  <si>
+    <t>Tranzystor krzemowy ma wzmocnienie prądowe β = 100. Napięcie zasilania wynosi 5 V. Przez kolektor tego tranzystora płynie prąd 100 mA. Jaki jest prąd bazy tego tranzystora?</t>
+  </si>
+  <si>
+    <t>W obwodzie prądu zmiennego przy tej samej częstotliwości zmieniono kondensator 2200 pF na 22 nF. Ile razy zmniejszyła się reaktancja Xc?</t>
+  </si>
+  <si>
+    <t>Kondensator mikowy ma pojemność 6800 pF, i napięcie pracy 500V. Czy można go zastosować w miejsce kondensatora 6,8 nF o napięciu pracy 250 V?</t>
+  </si>
+  <si>
+    <t>Spadek napięcia na oporniku wynosi 100 V, przy prądzie 10 mA. Opornik jakiej mocy zastosujemy w tym miejscu?</t>
+  </si>
+  <si>
+    <t>Tolerancja wykonania opornika 1 kΩ wynosi 5 %. W jakich granicach zawiera się jego oporność?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zasilacz nadajnika dostarcza do stopnia końcowego nadajnika napięcie </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0 V i prąd </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A. Jaka jest sprawność energetyczna stopnia końcowego w %</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> jeżeli na wyjściu zmierzyliśmy moc PEP = 40 W?</t>
     </r>
   </si>
   <si>
     <r>
-      <t>Moc wyjściową nadajnika FM podano w dBW i wynosi ona 13 dBW. Ile to jest w watach?</t>
+      <t xml:space="preserve">Napięcie na wejściu odbiornika </t>
     </r>
     <r>
       <rPr>
@@ -20328,66 +21653,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (dla ułatwienia podajemy, że 10 dBW odpowiada 10 W</t>
-    </r>
-  </si>
-  <si>
-    <t>Zwiększając liczbę możliwych przesunięć fazy w modulacji PSK, bez zwiększania baudrate, szerokość pasma sygnału:</t>
-  </si>
-  <si>
-    <t>Modulacja cyfrowa FSK oznacza przesyłanie sygnału telegrafii maszynowej RTTY za pomocą:</t>
-  </si>
-  <si>
-    <t>W emisji RTTY używane jest:</t>
-  </si>
-  <si>
-    <t>W zbudowanym wzmacniaczu m.cz. słychać dokuczliwe zakłócenia od pobliskich telefonów komórkowych. Co można zrobić, by te zakłócenia zmniejszyć:</t>
-  </si>
-  <si>
-    <t>Sygnał prostokątny o idealnie ostrych zboczach zajmuje pasmo o szerokości:</t>
-  </si>
-  <si>
-    <t>Częstotliwość prądu przemiennego wynosi 50 Hz, jaki jest okres drgań?</t>
-  </si>
-  <si>
-    <t>Napięcie międzyszczytowe sinusoidalnego napięcia zmiennego wynosi 678 V. Ile wynosi wartość skuteczna tego napięcia?</t>
-  </si>
-  <si>
-    <t>Jeżeli składowa elektryczna fali jest prostopadła do ziemi, to fala ma polaryzację:</t>
-  </si>
-  <si>
-    <t>Prędkość rozchodzenia się fali elektromagnetycznej w ośrodku innym niż próżnia jest:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Początkujący krótkofalowiec sfrustrował się brakiem stacji w paśmie 24 MHz. Opiekun radiostacji klubowej zalecił mu przejście na "niższe" pasmo. Które pasmo powinien wybrać? </t>
-  </si>
-  <si>
-    <t>Na wyświetlaczu radiostacji z prezentacją widma można obserwować:</t>
-  </si>
-  <si>
-    <t>Który z czynników wpływa na stabilność generatora z obwodem LC:</t>
-  </si>
-  <si>
-    <t>Generator BFO jest niezbędny do odbioru:</t>
-  </si>
-  <si>
-    <t>Wzmacniacz w klasie C nie może być używany do:</t>
-  </si>
-  <si>
-    <t>Wzmacniacz, który wzmacnia sygnały w zakresie pasm amatorskich 3,5, 7 i 14 MHz z takim samym wzmocnieniem nazywamy:</t>
-  </si>
-  <si>
-    <t>Oscylator kwarcowy ma wysoką stabilność częstotliwości. Zawdzięcza ją:</t>
-  </si>
-  <si>
-    <t>Najważniejsza z cech rezonatora kwarcowego to:</t>
-  </si>
-  <si>
-    <t>Dlaczego modulacja amplitudy AM (A3E) jest obecnie rzadziej używana od SSB (J3E)?</t>
-  </si>
-  <si>
-    <r>
-      <t>Jaki</t>
+      <t>na</t>
     </r>
     <r>
       <rPr>
@@ -20399,7 +21665,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>e</t>
+      <t>o</t>
     </r>
     <r>
       <rPr>
@@ -20409,7 +21675,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> oporności 50 Ω wynosi 10 µV. Napięcie to wzrosło do 100 µV. O ile wzrosło napięcie wyrażone w dB?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Moc wyjściową nadajnika FM podano w dB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
     </r>
     <r>
       <rPr>
@@ -20421,7 +21704,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>typowo pr</t>
+      <t>m</t>
     </r>
     <r>
       <rPr>
@@ -20431,11 +21714,448 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> i wynosi ona </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3 dB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Ile to jest w watach? (dla ułatwienia podajemy, że </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0 dB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> odpowiada 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Modulacj</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a cyfrow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a FSK oznacza</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> przesyłanie sygnału telegrafii maszynowej RTTY za pomocą</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Przy modulacji amplitudy AM szerokość kanału radiowego zależy od:</t>
+  </si>
+  <si>
+    <t>Czy czysty sygnał sinusoidalny 1000 Hz zawiera harmoniczne 2000 Hz i 3000 Hz?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Częstotliwość pracy nadajnika amatorskiego wynosi 3,5714 MHz. Jaka jest </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>przybliż</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kład</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>na długość fali tego nadajnika?</t>
+    </r>
+  </si>
+  <si>
+    <t>Fala elektromagnetyczna ma dwie składowe. Zaznacz która kombinacja jest poprawna:</t>
+  </si>
+  <si>
+    <r>
+      <t>Dlaczego rdzenie transformatorów wykonywane są z blaszek</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a nie z litego materiału</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>Pole elektryczne może być ekranowane za pomocą:</t>
+  </si>
+  <si>
+    <t>Siła elektromotoryczna ogniwa wynosi 1,5 V. Oporność wewnętrzna ogniwa wynosi 0,1Ω. Z ogniwa pobieramy prąd 1 A. Jakie będzie napięcie na zaciskach ogniwa?</t>
+  </si>
+  <si>
+    <t>Napięcie międzyszczytowe sinusoidalnego prądu zmiennego wynosi 678 V. Ile wynosi wartość skuteczna tego napięcia?</t>
+  </si>
+  <si>
+    <t>Wartość amplitudy napięcia sinusoidalnego wynosi 200 V. Jaka jest wartość skuteczna napięcia?</t>
+  </si>
+  <si>
+    <t>Jaka jest częstotliwość prądu zmiennego, którego okres wynosi 0,02 s?</t>
+  </si>
+  <si>
+    <t>Dobierz optymalnie moc nominalną (znamionową) rezystora 100 Ω w przypadku w którym płynący przez niego prąd wywołuje na nim spadek napięcia 3V.</t>
+  </si>
+  <si>
+    <t>Jakie napięcie występuje na oporze 50 Ω przy dostarczeniu do niego mocy 200 W?</t>
+  </si>
+  <si>
+    <t>Akumulator ma napięcie 6,5 V. Do akumulatora chcemy podłączyć żarówkę 3,5 V 0,3 A. Jaki opornik należy włączyć w szereg by ograniczyć prąd?</t>
+  </si>
+  <si>
+    <t>Jaka instytucja zajmuje się lokalizowaniem zakłóceń radiowych i radioelektrycznych oraz badaniem sprzętu radionadawczego?</t>
+  </si>
+  <si>
+    <t>Jeżeli nadajnik promieniuje energię w.cz. poprzez sieć zasilającą to stosujemy:</t>
+  </si>
+  <si>
+    <t>Jeżeli nadajnik amatorski powoduje zakłócenia, to jakie elementy sprawdzamy w pierwszej kolejności?</t>
+  </si>
+  <si>
+    <t>Jak zwalczyć zakłócenia rozprowadzane siecią energetyczną?</t>
+  </si>
+  <si>
+    <t>Jakim przyrządem mierzymy dopasowanie obciążenia do kabla koncentrycznego?</t>
+  </si>
+  <si>
+    <t>Jakim przyrządem mierzymy dopasowanie anteny do nadajnika?</t>
+  </si>
+  <si>
+    <t>Jak w warunkach amatorskich zmierzyć moc wyjściową nadajnika?</t>
+  </si>
+  <si>
+    <t>Skrót EME oznacza łączności:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dalekie rozchodzenie się fal UKF podczas inwersji temperaturowej </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>za</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> troposfer</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>z</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e poleg</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <u/>
         <sz val="11"/>
         <color rgb="FF0000FF"/>
@@ -20443,7 +22163,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>yjmuje się p</t>
+      <t>ięcz</t>
     </r>
     <r>
       <rPr>
@@ -20465,7 +22185,19 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>kre</t>
+      <t xml:space="preserve"> na</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>my</t>
     </r>
     <r>
       <rPr>
@@ -20475,1754 +22207,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> częstotliwości </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dźw</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>przy transm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ęków</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sjach</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>głoso</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>wy</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>star</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>za dla zrozumiałego</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> na</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ch amatorsk</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a mowy?</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ch:</t>
-    </r>
-  </si>
-  <si>
-    <t>Akumulator ma pojemność 20 Ah. Jak długo będzie świecić z niego żarówka pobierająca 4 A?</t>
-  </si>
-  <si>
-    <t>Akumulator ma pojemność 20Ah i pozwala na pracę pełną mocą radiostacji, która pobiera średnio około 5A. Czy taki akumulator wystarczy na trzygodzinną pracę tej radiostacji?</t>
-  </si>
-  <si>
-    <t>Jakim przyrządem możemy sprawdzić kształt napięcia zmiennego w.cz. i wykryć zniekształcenia sygnału?</t>
-  </si>
-  <si>
-    <t>Co to jest strefa martwa na falach krótkich?</t>
-  </si>
-  <si>
-    <t>O czym mówi podawana w prognozach propagacji częstotliwość MUF?</t>
-  </si>
-  <si>
-    <t>Propagacja jonosferyczna latem, w dzień, pasma radioamatorskiego 20 m, najczęściej odbywa się przez odbicie od warstwy:</t>
-  </si>
-  <si>
-    <t>Jakie długości fal zaliczamy do zakresu fal krótkich?</t>
-  </si>
-  <si>
-    <t>Kabel koncentryczny o długości 100m, przy częstotliwości 144MHz wprowadza tłumienie 12dB. Długość kabla pomiędzy nadajnikiem 100 W a anteną wynosi 50 m. Jaka część tej mocy zostanie doprowadzona do anteny?</t>
-  </si>
-  <si>
-    <r>
-      <t>Antena kierunkowa</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> na UKF w miejscu odbioru</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> daje napięcie 4 razy większe</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>jak</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>niż</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> dipol półfalowy</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> zawieszony w tym samym miejscu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Jaki </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ma </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">zysk </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dBd</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ma antena kierunkowa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <t>Jaka jest różnica pomiędzy efektywną mocą promieniowaną e.r.p. a efektywną mocą promieniowaną izotropowo e.i.r.p?</t>
-  </si>
-  <si>
-    <t>Zysk anteny kierunkowej wyrażony jest w dBi. Względem jakiego źródła jest określony?</t>
-  </si>
-  <si>
-    <t>Jak zmienia się oporność dipola półfalowego przy niskim zawieszeniu nad ziemią?</t>
-  </si>
-  <si>
-    <t>Jak zmienia się impedancja dipola półfalowego, gdy obniżamy wysokość jego zawieszenia?</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy nadajnika SSB na dwa pasma amatorskie z wzbudnicą 9 MHz. Blok 7 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy nadajnika SSB na dwa pasma amatorskie z wzbudnicą 9 MHz. Blok 6 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy nadajnika SSB na dwa pasma amatorskie z wzbudnicą 9 MHz. Blok 5 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy nadajnika SSB na dwa pasma amatorskie z wzbudnicą 9 MHz. Blok 4 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy nadajnika SSB na dwa pasma amatorskie z wzbudnicą 9 MHz. Blok 3 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy nadajnika telegraficznego na kilka pasm amatorskich z powielaniem częstotliwości. Blok 2 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy nadajnika telegraficznego na jedno pasmo amatorskie. Blok 3 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy nadajnika telegraficznego na jedno pasmo amatorskie. Blok 2 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy nadajnika telegraficznego na jedno pasmo amatorskie. Blok 1 to:</t>
-  </si>
-  <si>
-    <t>Przez selektywność odbiornika rozumiemy jego:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego FM na pasmo 144 MHz z podwójną przemianą częstotliwości, pracującego w kanałach fonicznych, stabilizowany kwarcami. Blok 10 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego FM na pasmo 144 MHz z podwójną przemianą częstotliwości, pracującego w kanałach fonicznych, stabilizowany kwarcami. Blok 9 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego FM na pasmo 144 MHz z podwójną przemianą częstotliwości, pracującego w kanałach fonicznych, stabilizowany kwarcami. Blok 8 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego FM na pasmo 144 MHz z podwójną przemianą częstotliwości, pracującego w kanałach fonicznych, stabilizowany kwarcami. Blok 7 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego FM na pasmo 144 MHz z podwójną przemianą częstotliwości, pracującego w kanałach fonicznych, stabilizowany kwarcami. Blok 6 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego FM na pasmo 144 MHz z podwójną przemianą częstotliwości, pracującego w kanałach fonicznych, stabilizowany kwarcami. Blok 5 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego FM na pasmo 144 MHz z podwójną przemianą częstotliwości, pracującego w kanałach fonicznych, stabilizowany kwarcami. Blok 4 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego FM na pasmo 144 MHz z podwójną przemianą częstotliwości, pracującego w kanałach fonicznych, stabilizowany kwarcami. Blok 3 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego FM na pasmo 144 MHz z podwójną przemianą częstotliwości, pracującego w kanałach fonicznych, stabilizowany kwarcami. Blok 1 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy odbiornika homodynowego CW i SSB, na jedno pasmo amatorskie. Blok 4 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy odbiornika homodynowego CW i SSB, na jedno pasmo amatorskie. Blok 3 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy odbiornika homodynowego CW i SSB, na jedno pasmo amatorskie. Blok 2 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego AM, CW, SSB z podwójną przemianą częstotliwości. Blok 11 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego AM, CW, SSB z podwójną przemianą częstotliwości. Blok 10 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego AM, CW, SSB z podwójną przemianą częstotliwości. Blok 8 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego AM, CW, SSB z podwójną przemianą częstotliwości. Blok 7 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego AM, CW, SSB z podwójną przemianą częstotliwości. Blok 6 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego AM, CW, SSB z podwójną przemianą częstotliwości. Blok 5 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego AM, CW, SSB z podwójną przemianą częstotliwości. Blok 4 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego AM, CW, SSB z podwójną przemianą częstotliwości. Blok 3 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego AM, CW, SSB z podwójną przemianą częstotliwości. Blok 2 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego AM z pojedynczą przemianą. Blok 6 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego AM z pojedynczą przemianą. Blok 4 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego AM z pojedynczą przemianą. Blok 3 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat blokowy odbiornika superheterodynowego AM z pojedynczą przemianą. Blok 2 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat stabilizacji PLL w formie ponumerowanych ale nie opisanych bloków. Blok 6 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat stabilizacji PLL w formie ponumerowanych ale nie opisanych bloków. Blok 5 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat stabilizacji PLL w formie ponumerowanych ale nie opisanych bloków. Blok 3 to:</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat stabilizacji PLL w formie ponumerowanych ale nie opisanych bloków. Blok 2 to:</t>
-  </si>
-  <si>
-    <t>Generator TCXO wysoką stabilność zawdzięcza:</t>
-  </si>
-  <si>
-    <t>Warunkiem wzbudzenia się generatora z obwodem rezonansowym jest:</t>
-  </si>
-  <si>
-    <t>Czy dyskryminator sygnału FM powinien reagować na modulację amplitudy sygnału FM?</t>
-  </si>
-  <si>
-    <t>Aby czytelnie odebrać sygnał SSB, to przy odbiorze dolnej wstęgi (LSB) sygnał odtwarzający falę nośną powinien być:</t>
-  </si>
-  <si>
-    <r>
-      <t>Dlaczego do detekcji sygnałów telegrafii CW używamy p</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rodukt detektora i p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>omocniczego generatora BFO?</t>
-    </r>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat detektora diodowego. Jaką rolę spełnia w nim kondensator C1?</t>
-  </si>
-  <si>
-    <t>W tranzystorowym wzmacniaczu mocy który element jest niezbędny aby nie generować zakłóceń harmonicznych?</t>
-  </si>
-  <si>
-    <t>Wzmacniacz wysokiej częstotliwości obciążony obwodem rezonansowym jest:</t>
-  </si>
-  <si>
-    <t>Wzmacniacz posiada wzmocnienie napięciowe 10 razy. Wyraź to wzmocnienie w decybelach (dB)</t>
-  </si>
-  <si>
-    <t>Napięcie na wyjściu zasilacza nieobciążonego z filtrem pojemnościowym, wynosi 25 V. Jakie jest napięcie Usk transformatora zasilającego diody?</t>
-  </si>
-  <si>
-    <t>Na rysunku przedstawiono schemat prostownika. Jak nazywa się ten rodzaj prostownika?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Obwód rezonansowy na częstotliwość 14 MHz ma dobroć Q=100. Jaka jest szerokość p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>asm</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a teg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o obwodu rezonansowego</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> zależy od dobroci Q obwodu. Jeżeli Q = 100 to ile wynosi pasmo przy częstotliwości obwodu 14 MHz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <t>Mamy obwód rezonansowy o częstotliwości 3,5 MHz. W jego skład wchodzi pojemność C = 400 pF. Jaką pojemność należy dołączyć zamiast C, by przestroić obwód na 7 MHz?</t>
-  </si>
-  <si>
-    <r>
-      <t>Obwód rezonansowy równoległy LC</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> w punkcie rezonansu przedstawia </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>im</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>or</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eda</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ość</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cję</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>:</t>
     </r>
   </si>
   <si>
-    <t>124. Dwa oporniki 1 kΩ połączone są w szereg i dołączone do napięcia 200 V. Jaki jest spadek napięcia na każdym z tych oporników?</t>
-  </si>
-  <si>
-    <t>Dwie indukcyjności nie sprzężone mają 30 µH i 60 µH. Ile wynosi indukcyjność zastępcza przy połączeniu szeregowym tych indukcyjności?</t>
-  </si>
-  <si>
-    <r>
-      <t>W układzie były trzy kondensatory po 30 µF połączone szeregowo . Każdy z nich ma napięcie pracy 100V. Czy możemy je zastąpić jednym kondensatorem 10 µF</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>jeśl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">i </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tak, t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o jaki</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">e </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>usi mieć</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> napięci</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pracy?</t>
-    </r>
-  </si>
-  <si>
-    <t>Mamy dwa kondensatory o pojemności jeden 4,7 nF a drugi 300 pF. Jak należy je połączyć by uzyskać pojemność 5000 pF?</t>
-  </si>
-  <si>
-    <t>W jakiej klasie wzmacniacza pracuje lampowy stopień mocy nadajnika telegraficznego?</t>
-  </si>
-  <si>
-    <t>W której klasie wzmacniacz telegraficzny ma najwyższą sprawność?</t>
-  </si>
-  <si>
-    <t>Tranzystor krzemowy ma wzmocnienie prądowe β = 100. Napięcie zasilania wynosi 5 V. Przez kolektor tego tranzystora płynie prąd 100 mA. Jaki jest prąd bazy tego tranzystora?</t>
-  </si>
-  <si>
-    <t>W obwodzie prądu zmiennego przy tej samej częstotliwości zmieniono kondensator 2200 pF na 22 nF. Ile razy zmniejszyła się reaktancja Xc?</t>
-  </si>
-  <si>
-    <t>Kondensator mikowy ma pojemność 6800 pF, i napięcie pracy 500V. Czy można go zastosować w miejsce kondensatora 6,8 nF o napięciu pracy 250 V?</t>
-  </si>
-  <si>
-    <t>Spadek napięcia na oporniku wynosi 100 V, przy prądzie 10 mA. Opornik jakiej mocy zastosujemy w tym miejscu?</t>
-  </si>
-  <si>
-    <t>Tolerancja wykonania opornika 1 kΩ wynosi 5 %. W jakich granicach zawiera się jego oporność?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Zasilacz nadajnika dostarcza do stopnia końcowego nadajnika napięcie </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0 V i prąd </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A. Jaka jest sprawność energetyczna stopnia końcowego w %</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> jeżeli na wyjściu zmierzyliśmy moc PEP = 40 W?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Napięcie na wejściu odbiornika </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>na</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> oporności 50 om wynosi 10 µV. Napięcie to wzrosło do 100 µV. O ile wzrosło napięcie wyrażone w dB?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Moc wyjściową nadajnika FM podano w dB</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>W</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> i wynosi ona </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3 dB</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>W</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Ile to jest w watach? (dla ułatwienia podajemy, że </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0 dB</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>W</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> odpowiada 1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> W</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Modulacj</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a cyfrow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a FSK oznacza</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> przesyłanie sygnału telegrafii maszynowej RTTY za pomocą</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <t>Przy modulacji amplitudy AM szerokość kanału radiowego zależy od:</t>
-  </si>
-  <si>
-    <t>Czy czysty sygnał sinusoidalny 1000 Hz zawiera harmoniczne 2000 Hz i 3000 Hz?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Częstotliwość pracy nadajnika amatorskiego wynosi 3,5714 MHz. Jaka jest </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>przybliż</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>kład</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>na długość fali tego nadajnika?</t>
-    </r>
-  </si>
-  <si>
-    <t>Fala elektromagnetyczna ma dwie składowe. Zaznacz która kombinacja jest poprawna:</t>
-  </si>
-  <si>
-    <r>
-      <t>Dlaczego rdzenie transformatorów wykonywane są z blaszek</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a nie z litego materiału</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <t>Pole elektryczne może być ekranowane za pomocą:</t>
-  </si>
-  <si>
-    <t>Siła elektromotoryczna ogniwa wynosi 1,5 V. Oporność wewnętrzna ogniwa wynosi 0,1Ω. Z ogniwa pobieramy prąd 1 A. Jakie będzie napięcie na zaciskach ogniwa?</t>
-  </si>
-  <si>
-    <t>Napięcie międzyszczytowe sinusoidalnego prądu zmiennego wynosi 678 V. Ile wynosi wartość skuteczna tego napięcia?</t>
-  </si>
-  <si>
-    <t>Wartość amplitudy napięcia sinusoidalnego wynosi 200 V. Jaka jest wartość skuteczna napięcia?</t>
-  </si>
-  <si>
-    <t>Jaka jest częstotliwość prądu zmiennego, którego okres wynosi 0,02 s?</t>
-  </si>
-  <si>
-    <t>Dobierz optymalnie moc nominalną (znamionową) rezystora 100 Ω w przypadku w którym płynący przez niego prąd wywołuje na nim spadek napięcia 3V.</t>
-  </si>
-  <si>
-    <t>Jakie napięcie występuje na oporze 50 Ω przy dostarczeniu do niego mocy 200 W?</t>
-  </si>
-  <si>
-    <t>Akumulator ma napięcie 6,5 V. Do akumulatora chcemy podłączyć żarówkę 3,5 V 0,3 A. Jaki opornik należy włączyć w szereg by ograniczyć prąd?</t>
-  </si>
-  <si>
-    <t>Jaka instytucja zajmuje się lokalizowaniem zakłóceń radiowych i radioelektrycznych oraz badaniem sprzętu radionadawczego?</t>
-  </si>
-  <si>
-    <t>Jeżeli nadajnik promieniuje energię w.cz. poprzez sieć zasilającą to stosujemy:</t>
-  </si>
-  <si>
-    <t>Jeżeli nadajnik amatorski powoduje zakłócenia, to jakie elementy sprawdzamy w pierwszej kolejności?</t>
-  </si>
-  <si>
-    <t>Jak zwalczyć zakłócenia rozprowadzane siecią energetyczną?</t>
-  </si>
-  <si>
-    <t>Jakim przyrządem mierzymy dopasowanie obciążenia do kabla koncentrycznego?</t>
-  </si>
-  <si>
-    <t>Jakim przyrządem mierzymy dopasowanie anteny do nadajnika?</t>
-  </si>
-  <si>
-    <t>Jak w warunkach amatorskich zmierzyć moc wyjściową nadajnika?</t>
-  </si>
-  <si>
-    <t>Skrót EME oznacza łączności:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dalekie rozchodzenie się fal UKF podczas inwersji temperaturowej </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>za</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> troposfer</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>z</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>e poleg</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ięcz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> na</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>my</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
     <t>Co to jest zasięg horyzontalny na UKF?</t>
   </si>
   <si>
@@ -22232,10 +22220,10 @@
     <t>Czy stan jonosfery ma wpływ na rozchodzenie się fal krótkich?</t>
   </si>
   <si>
-    <t>Połączenie niesymetrycznego kabla koncentrycznego 50 om do symetrycznej anteny o oporności falowej 50 Ω wymaga zastosowania:</t>
-  </si>
-  <si>
-    <t>Niesymetryczny kabel koncentryczny 50 om do symetrycznej anteny o oporności falowej 50Ω najlepiej połączyć za pomocą:</t>
+    <t>Połączenie niesymetrycznego kabla koncentrycznego 50 Ω do symetrycznej anteny o oporności falowej 50 Ω wymaga zastosowania:</t>
+  </si>
+  <si>
+    <t>Niesymetryczny kabel koncentryczny 50 Ω do symetrycznej anteny o oporności falowej 50Ω najlepiej połączyć za pomocą:</t>
   </si>
   <si>
     <r>
@@ -26991,7 +26979,7 @@
     <t>Zasilacz nadajnika dostarcza do stopnia końcowego nadajnika napięcie 500 V i prąd 200 mA. Jaka jest sprawność energetyczna stopnia końcowego w % jeżeli na wyjściu zmierzyliśmy moc PEP = 40 W?</t>
   </si>
   <si>
-    <t>Napięcie na wejściu odbiornika na oporności 50 om wynosi 10 µV. Napięcie to wzrosło do 100 µV. O ile wzrosło napięcie wyrażone w dB?</t>
+    <t>Napięcie na wejściu odbiornika na oporności 50 Ω wynosi 10 µV. Napięcie to wzrosło do 100 µV. O ile wzrosło napięcie wyrażone w dB?</t>
   </si>
   <si>
     <t>Częstotliwość pracy nadajnika amatorskiego wynosi 3,5714 MHz. Jaka jest dokładna długość fali tego nadajnika?</t>
@@ -27618,7 +27606,7 @@
     <t>Mamy dwa kondensatory o pojemności 4,7 nF oraz 300 pF. Jak należy je połączyć, by uzyskać pojemność 5000 pF?</t>
   </si>
   <si>
-    <t>Która z podanych mocy PEP odpowiada napięciu maksymalnemu Umax = 100 V, zmierzonemu oscyloskopem na wyjściu nadajnika, na obciążeniu 50 omów (zakładamy sygnał sinusoidalny)?</t>
+    <t>Która z podanych mocy PEP odpowiada napięciu maksymalnemu Umax = 100 V, zmierzonemu oscyloskopem na wyjściu nadajnika, na obciążeniu 50 Ω (zakładamy sygnał sinusoidalny)?</t>
   </si>
   <si>
     <t>Zasilacz dostarcza do stopnia końcowego nadajnika napięcie 500 V i prąd 200 mA. Jaka jest sprawność energetyczna stopnia końcowego, jeżeli na wyjściu zmierzyliśmy moc PEP = 40 W?</t>
@@ -27648,7 +27636,7 @@
     <t>Zasilacz nadajnika dostarcza do stopnia końcowego nadajnika napięcie 20 V i prąd 5 A. Jaka jest sprawność energetyczna stopnia końcowego w %, jeżeli na wyjściu zmierzyliśmy moc PEP = 40 W?</t>
   </si>
   <si>
-    <t>Napięcie na wejściu odbiornika o oporności 50 om wynosi 10 µV. Napięcie to wzrosło do 100 µV. O ile wzrosło napięcie wyrażone w dB?</t>
+    <t>Napięcie na wejściu odbiornika o oporności 50 Ω wynosi 10 µV. Napięcie to wzrosło do 100 µV. O ile wzrosło napięcie wyrażone w dB?</t>
   </si>
   <si>
     <t>Moc wyjściową nadajnika FM podano w dBm i wynosi ona 33 dBm. Ile to jest w watach? (dla ułatwienia podajemy, że 30 dBm odpowiada 1 W)</t>
@@ -44105,7 +44093,7 @@
       <c r="I666" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:I666" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="I38" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>

--- a/UKE_porownanie_pytan.xlsx
+++ b/UKE_porownanie_pytan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\PycharmProjects\skrypty\UKE-nowe-pytania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D5C86C-539A-4132-B234-6B3277710E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0C5F5D-7FAA-4354-972D-DC203289C99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,12 +23,25 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">porownanie!$A$1:$K$664</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">stare!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10483" uniqueCount="3434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10484" uniqueCount="3434">
   <si>
     <r>
       <t xml:space="preserve">Siła elektromotoryczna ogniwa wynosi 1,5 V. </t>
@@ -32573,7 +32586,9 @@
       <c r="H129" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="I129" s="2"/>
+      <c r="I129" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="J129" s="2"/>
       <c r="K129" s="7" t="s">
         <v>24</v>

--- a/UKE_porownanie_pytan.xlsx
+++ b/UKE_porownanie_pytan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\PycharmProjects\skrypty\UKE-nowe-pytania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0C5F5D-7FAA-4354-972D-DC203289C99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C8E429-9A5D-495D-AC48-6069DB2E7B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10484" uniqueCount="3434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10487" uniqueCount="3437">
   <si>
     <r>
       <t xml:space="preserve">Siła elektromotoryczna ogniwa wynosi 1,5 V. </t>
@@ -28171,6 +28171,15 @@
   </si>
   <si>
     <t>RADIOTECHNIKA</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Ilość</t>
   </si>
 </sst>
 </file>
@@ -28278,7 +28287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -28303,6 +28312,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -28608,7 +28620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -28619,7 +28631,7 @@
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -28627,13 +28639,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -28641,7 +28653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -28649,7 +28661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -28657,7 +28669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -28665,7 +28677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -28673,7 +28685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -28681,48 +28693,81 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
+        <v>3435</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="D12" s="9">
+        <f>COUNTIF(porownanie!K:K,TYTUL!C12)</f>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="D13" s="9">
+        <f>COUNTIF(porownanie!K:K,TYTUL!C13)</f>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="D14" s="9">
+        <f>COUNTIF(porownanie!K:K,TYTUL!C14)</f>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>26</v>
+      </c>
+      <c r="D15" s="9">
+        <f>COUNTIF(porownanie!K:K,TYTUL!C15)</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
+        <v>3434</v>
+      </c>
+      <c r="D16" s="5">
+        <f>SUM(D12:D15)</f>
+        <v>663</v>
       </c>
     </row>
   </sheetData>

--- a/UKE_porownanie_pytan.xlsx
+++ b/UKE_porownanie_pytan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\PycharmProjects\skrypty\UKE-nowe-pytania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF45A467-3B06-47AD-9086-D850A1748A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BF62AF-5B6E-400B-8AAB-41EB77322F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28801,7 +28801,7 @@
     <col min="5" max="5" width="9.85546875" hidden="1" customWidth="1"/>
     <col min="6" max="8" width="30.7109375" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="50.7109375" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="30.7109375" customWidth="1"/>
   </cols>
@@ -29332,7 +29332,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="390" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -29773,7 +29773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -29831,7 +29831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="330" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -30316,7 +30316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="330" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="210" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -30488,7 +30488,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="360" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -35031,7 +35031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" ht="345" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>

--- a/UKE_porownanie_pytan.xlsx
+++ b/UKE_porownanie_pytan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\PycharmProjects\skrypty\UKE-nowe-pytania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BF62AF-5B6E-400B-8AAB-41EB77322F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AEF7F2-C2BD-4785-A695-84D580856302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28786,10 +28786,10 @@
   <dimension ref="A1:K664"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/UKE_porownanie_pytan.xlsx
+++ b/UKE_porownanie_pytan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\PycharmProjects\skrypty\UKE-nowe-pytania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AEF7F2-C2BD-4785-A695-84D580856302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC66A45D-EC81-46D0-88D2-9592AEAD7EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28786,10 +28786,10 @@
   <dimension ref="A1:K664"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D70" sqref="D70"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48505,10 +48505,10 @@
   <dimension ref="A1:G422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A59" sqref="A59"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57396,10 +57396,10 @@
   <dimension ref="A1:G526"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C285" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A293" sqref="A293"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/UKE_porownanie_pytan.xlsx
+++ b/UKE_porownanie_pytan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\PycharmProjects\skrypty\UKE-nowe-pytania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44A58E0-2BF8-42F3-A409-23F777F33CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DDCA96-810C-4B70-B0E9-A3A74B993F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28413,10 +28413,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54535,7 +54531,9 @@
       </c>
     </row>
     <row r="665" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A665" s="1"/>
+      <c r="A665" s="1">
+        <v>664</v>
+      </c>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
       <c r="D665" s="2" t="s">
@@ -54566,7 +54564,9 @@
       <c r="O665" s="9"/>
     </row>
     <row r="666" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A666" s="1"/>
+      <c r="A666" s="1">
+        <v>665</v>
+      </c>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
       <c r="D666" s="2" t="s">
@@ -54597,7 +54597,9 @@
       <c r="O666" s="9"/>
     </row>
     <row r="667" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A667" s="1"/>
+      <c r="A667" s="1">
+        <v>666</v>
+      </c>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
       <c r="D667" s="2" t="s">
@@ -54628,7 +54630,9 @@
       <c r="O667" s="9"/>
     </row>
     <row r="668" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A668" s="1"/>
+      <c r="A668" s="1">
+        <v>667</v>
+      </c>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
       <c r="D668" s="2" t="s">

--- a/UKE_porownanie_pytan.xlsx
+++ b/UKE_porownanie_pytan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\PycharmProjects\skrypty\UKE-nowe-pytania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DDCA96-810C-4B70-B0E9-A3A74B993F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ECA9FB-ECD4-42B9-93B5-CB666D494183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28225,9 +28225,6 @@
     <t>Ilość klasa A</t>
   </si>
   <si>
-    <t>Ilość klasa B</t>
-  </si>
-  <si>
     <t>ID stare C</t>
   </si>
   <si>
@@ -28244,6 +28241,9 @@
   </si>
   <si>
     <t>Świadectwo klasy C</t>
+  </si>
+  <si>
+    <t>Ilość klasa C</t>
   </si>
 </sst>
 </file>
@@ -28785,7 +28785,7 @@
         <v>3451</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>3452</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -28923,10 +28923,10 @@
         <v>3094</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>3454</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>3455</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>3456</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2363</v>
@@ -28953,16 +28953,16 @@
         <v>25</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>3456</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>3457</v>
       </c>
-      <c r="M1" s="12" t="s">
-        <v>3458</v>
-      </c>
       <c r="N1" s="12" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -54718,10 +54718,10 @@
         <v>46</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>3456</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>3457</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>3458</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>3432</v>
@@ -66464,10 +66464,10 @@
         <v>39</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>3456</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>3457</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>3458</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>3432</v>

--- a/UKE_porownanie_pytan.xlsx
+++ b/UKE_porownanie_pytan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\PycharmProjects\skrypty\UKE-nowe-pytania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7B94FF-2FE9-4297-9DDC-1186B7F2757B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF311DF2-E7B7-437A-A3E6-6C2B226260B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28895,7 +28895,7 @@
   <dimension ref="A1:O668"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>

--- a/UKE_porownanie_pytan.xlsx
+++ b/UKE_porownanie_pytan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\PycharmProjects\skrypty\UKE-nowe-pytania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF311DF2-E7B7-437A-A3E6-6C2B226260B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDD6C4F-4761-426D-A5C3-CE4075FF7B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14193" uniqueCount="3459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14197" uniqueCount="3459">
   <si>
     <r>
       <t xml:space="preserve">Siła elektromotoryczna ogniwa wynosi 1,5 V. </t>
@@ -54549,7 +54549,9 @@
       <c r="H665" s="2" t="s">
         <v>3436</v>
       </c>
-      <c r="I665" s="2"/>
+      <c r="I665" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="J665" s="2"/>
       <c r="K665" s="7" t="s">
         <v>21</v>
@@ -54582,7 +54584,9 @@
       <c r="H666" s="2" t="s">
         <v>3440</v>
       </c>
-      <c r="I666" s="2"/>
+      <c r="I666" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="J666" s="2"/>
       <c r="K666" s="7" t="s">
         <v>21</v>
@@ -54615,7 +54619,9 @@
       <c r="H667" s="2">
         <v>0.6</v>
       </c>
-      <c r="I667" s="2"/>
+      <c r="I667" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="J667" s="2"/>
       <c r="K667" s="7" t="s">
         <v>21</v>
@@ -54648,7 +54654,9 @@
       <c r="H668" s="2" t="s">
         <v>3445</v>
       </c>
-      <c r="I668" s="2"/>
+      <c r="I668" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="J668" s="2"/>
       <c r="K668" s="7" t="s">
         <v>21</v>

--- a/UKE_porownanie_pytan.xlsx
+++ b/UKE_porownanie_pytan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\PycharmProjects\skrypty\UKE-nowe-pytania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDD6C4F-4761-426D-A5C3-CE4075FF7B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69C7D37-8F1F-4778-A6DE-7FEE7404622C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14197" uniqueCount="3459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14199" uniqueCount="3460">
   <si>
     <r>
       <t xml:space="preserve">Siła elektromotoryczna ogniwa wynosi 1,5 V. </t>
@@ -28244,6 +28244,9 @@
 "porownanie" - główna zakładka z zaznaczonymi zmianami pomiędzy starymi a nowymi pytaniami. Patrz niżej, wyjaśnienia docztące sposobu prezentacji zmian
 "stare" - stare pytania ze strony EgzaminKF (patrz źródła)
 "nowe" - nowe pytania ściągnięte z oficjalnej strony UKE (patrz źródła)</t>
+  </si>
+  <si>
+    <t>[mamut-tme] Wynika to z tego, że podczas rezonansu Z=R, a w układach o charakterze całkowicie rezystancyjnych faza napięcia i prądu jest taka sama.</t>
   </si>
 </sst>
 </file>
@@ -29565,7 +29568,7 @@
       </c>
       <c r="O17" s="9"/>
     </row>
-    <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -29587,9 +29590,11 @@
         <v>626</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>3459</v>
+      </c>
       <c r="K18" s="7" t="s">
         <v>21</v>
       </c>
@@ -66951,7 +66956,7 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>2629</v>
       </c>
@@ -66968,9 +66973,11 @@
         <v>626</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>3459</v>
+      </c>
       <c r="H19" s="1" t="s">
         <v>1663</v>
       </c>

--- a/UKE_porownanie_pytan.xlsx
+++ b/UKE_porownanie_pytan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\PycharmProjects\skrypty\UKE-nowe-pytania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69C7D37-8F1F-4778-A6DE-7FEE7404622C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DCCB9B-AA45-4DBE-99AD-1C7247954F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14199" uniqueCount="3460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14215" uniqueCount="3460">
   <si>
     <r>
       <t xml:space="preserve">Siła elektromotoryczna ogniwa wynosi 1,5 V. </t>
@@ -31272,7 +31272,9 @@
       <c r="H63" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="I63" s="2"/>
+      <c r="I63" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="J63" s="2"/>
       <c r="K63" s="7" t="s">
         <v>21</v>
@@ -39965,7 +39967,9 @@
       <c r="H290" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="I290" s="2"/>
+      <c r="I290" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="J290" s="2"/>
       <c r="K290" s="7" t="s">
         <v>21</v>
@@ -39998,7 +40002,9 @@
       <c r="H291" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="I291" s="2"/>
+      <c r="I291" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="J291" s="2"/>
       <c r="K291" s="7" t="s">
         <v>21</v>
@@ -40913,7 +40919,9 @@
       <c r="H316" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="I316" s="2"/>
+      <c r="I316" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="J316" s="2"/>
       <c r="K316" s="7" t="s">
         <v>21</v>
@@ -40950,7 +40958,9 @@
       <c r="H317" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="I317" s="2"/>
+      <c r="I317" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="J317" s="2"/>
       <c r="K317" s="7" t="s">
         <v>21</v>
@@ -41137,7 +41147,9 @@
       <c r="H322" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="I322" s="2"/>
+      <c r="I322" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="J322" s="2"/>
       <c r="K322" s="7" t="s">
         <v>21</v>
@@ -41517,7 +41529,9 @@
       <c r="H332" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="I332" s="2"/>
+      <c r="I332" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="J332" s="2"/>
       <c r="K332" s="7" t="s">
         <v>21</v>
@@ -41665,7 +41679,9 @@
       <c r="H336" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="I336" s="2"/>
+      <c r="I336" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="J336" s="2"/>
       <c r="K336" s="7" t="s">
         <v>21</v>
@@ -54692,10 +54708,10 @@
   <dimension ref="A1:J422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D408" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D421" sqref="D421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -68212,7 +68228,9 @@
       <c r="E63" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="F63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
         <v>1663</v>
@@ -74102,7 +74120,9 @@
       <c r="E278" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F278" s="1"/>
+      <c r="F278" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G278" s="1"/>
       <c r="H278" s="1" t="s">
         <v>1663</v>
@@ -74126,7 +74146,9 @@
       <c r="E279" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="F279" s="1"/>
+      <c r="F279" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G279" s="1"/>
       <c r="H279" s="1" t="s">
         <v>1663</v>
@@ -74786,7 +74808,9 @@
       <c r="E303" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="F303" s="1"/>
+      <c r="F303" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G303" s="1"/>
       <c r="H303" s="1" t="s">
         <v>1663</v>
@@ -74814,7 +74838,9 @@
       <c r="E304" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="F304" s="1"/>
+      <c r="F304" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G304" s="1"/>
       <c r="H304" s="1" t="s">
         <v>1663</v>
@@ -74952,7 +74978,9 @@
       <c r="E309" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="F309" s="1"/>
+      <c r="F309" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G309" s="1"/>
       <c r="H309" s="1" t="s">
         <v>1663</v>
@@ -75234,7 +75262,9 @@
       <c r="E319" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F319" s="1"/>
+      <c r="F319" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G319" s="1"/>
       <c r="H319" s="1" t="s">
         <v>1663</v>
@@ -75346,7 +75376,9 @@
       <c r="E323" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F323" s="1"/>
+      <c r="F323" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="G323" s="1"/>
       <c r="H323" s="1" t="s">
         <v>1663</v>

--- a/UKE_porownanie_pytan.xlsx
+++ b/UKE_porownanie_pytan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\PycharmProjects\skrypty\UKE-nowe-pytania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DCCB9B-AA45-4DBE-99AD-1C7247954F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4B2848-E229-4A4B-A530-B7351B5A8822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14215" uniqueCount="3460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14219" uniqueCount="3461">
   <si>
     <r>
       <t xml:space="preserve">Siła elektromotoryczna ogniwa wynosi 1,5 V. </t>
@@ -28247,6 +28247,9 @@
   </si>
   <si>
     <t>[mamut-tme] Wynika to z tego, że podczas rezonansu Z=R, a w układach o charakterze całkowicie rezystancyjnych faza napięcia i prądu jest taka sama.</t>
+  </si>
+  <si>
+    <t>Prefiksu SR używa się do przemienników</t>
   </si>
 </sst>
 </file>
@@ -53689,8 +53692,12 @@
       <c r="H642" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I642" s="2"/>
-      <c r="J642" s="2"/>
+      <c r="I642" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J642" s="2" t="s">
+        <v>3460</v>
+      </c>
       <c r="K642" s="7" t="s">
         <v>21</v>
       </c>
@@ -54708,10 +54715,10 @@
   <dimension ref="A1:J422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D408" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D421" sqref="D421"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -81202,8 +81209,12 @@
       <c r="E520" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F520" s="1"/>
-      <c r="G520" s="1"/>
+      <c r="F520" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G520" s="1" t="s">
+        <v>3460</v>
+      </c>
       <c r="H520" s="1" t="s">
         <v>1663</v>
       </c>

--- a/UKE_porownanie_pytan.xlsx
+++ b/UKE_porownanie_pytan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\PycharmProjects\skrypty\UKE-nowe-pytania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4B2848-E229-4A4B-A530-B7351B5A8822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7229ABB2-ACA7-4AE0-B4EC-D95995BA5066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14219" uniqueCount="3461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14223" uniqueCount="3463">
   <si>
     <r>
       <t xml:space="preserve">Siła elektromotoryczna ogniwa wynosi 1,5 V. </t>
@@ -28250,6 +28250,12 @@
   </si>
   <si>
     <t>Prefiksu SR używa się do przemienników</t>
+  </si>
+  <si>
+    <t>Poprawione przez [SenatorBeaver]</t>
+  </si>
+  <si>
+    <t>Podane przez [SenatorBeaver]</t>
   </si>
 </sst>
 </file>
@@ -29219,9 +29225,11 @@
         <v>635</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>3461</v>
+      </c>
       <c r="K8" s="7" t="s">
         <v>21</v>
       </c>
@@ -29331,8 +29339,12 @@
       <c r="H11" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>3462</v>
+      </c>
       <c r="K11" s="7" t="s">
         <v>21</v>
       </c>
@@ -66699,7 +66711,7 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2632</v>
       </c>
@@ -66716,9 +66728,11 @@
         <v>635</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>3461</v>
+      </c>
       <c r="H9" s="1" t="s">
         <v>1663</v>
       </c>

--- a/UKE_porownanie_pytan.xlsx
+++ b/UKE_porownanie_pytan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\PycharmProjects\skrypty\UKE-nowe-pytania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7229ABB2-ACA7-4AE0-B4EC-D95995BA5066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5590D227-0081-42A2-9696-E300DFB1BE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14223" uniqueCount="3463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14227" uniqueCount="3464">
   <si>
     <r>
       <t xml:space="preserve">Siła elektromotoryczna ogniwa wynosi 1,5 V. </t>
@@ -28256,6 +28256,15 @@
   </si>
   <si>
     <t>Podane przez [SenatorBeaver]</t>
+  </si>
+  <si>
+    <t>[SenatorBeaver]:
+Prawidłowa odpowiedź to a (w rezonansie stanowią tylko rezystancję)
+Źródło: https://pl.wikibooks.org/wiki/Wprowadzenie_do_elektroniki/Obwody_R,L,C
+"W rezonansie obwód ma najmniejszą impedancję równą R."
+Wzór na impedancję to
+Z = sqrt(R^2 + (XL - XC)^2))
+Warunek rezonansu to reaktancja pojemnościowa i reaktancja indukcyjna są równe</t>
   </si>
 </sst>
 </file>
@@ -29511,7 +29520,7 @@
       </c>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="180" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -29532,8 +29541,12 @@
       <c r="H16" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>3463</v>
+      </c>
       <c r="K16" s="7" t="s">
         <v>21</v>
       </c>
@@ -66939,7 +66952,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2774</v>
       </c>
@@ -66955,8 +66968,12 @@
       <c r="E17" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>3463</v>
+      </c>
       <c r="H17" s="1" t="s">
         <v>1663</v>
       </c>

--- a/UKE_porownanie_pytan.xlsx
+++ b/UKE_porownanie_pytan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\PycharmProjects\skrypty\UKE-nowe-pytania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751C6BEA-3D4C-461A-AD07-36CF05802476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B01CEB-3D82-4338-B059-0CBE01316067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14481" uniqueCount="3466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14485" uniqueCount="3466">
   <si>
     <r>
       <t xml:space="preserve">Siła elektromotoryczna ogniwa wynosi 1,5 V. </t>
@@ -54022,7 +54022,9 @@
       <c r="H643" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I643" s="2"/>
+      <c r="I643" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J643" s="2"/>
       <c r="K643" s="7" t="s">
         <v>21</v>
@@ -54137,7 +54139,9 @@
       <c r="H646" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I646" s="2"/>
+      <c r="I646" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="J646" s="2"/>
       <c r="K646" s="7" t="s">
         <v>21</v>
@@ -81790,7 +81794,9 @@
       <c r="E521" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F521" s="1"/>
+      <c r="F521" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G521" s="1"/>
       <c r="H521" s="1" t="s">
         <v>1659</v>
@@ -81878,7 +81884,9 @@
       <c r="E524" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F524" s="1"/>
+      <c r="F524" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G524" s="1"/>
       <c r="H524" s="1" t="s">
         <v>1659</v>

--- a/UKE_porownanie_pytan.xlsx
+++ b/UKE_porownanie_pytan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\PycharmProjects\skrypty\UKE-nowe-pytania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B01CEB-3D82-4338-B059-0CBE01316067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85981E07-AD50-4FEA-80AC-A2361BA65539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="nowe" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">nowe!$A$1:$J$530</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">nowe!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">porownanie!$A$1:$O$668</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">stare!$A$1:$J$422</definedName>
   </definedNames>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14485" uniqueCount="3466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14557" uniqueCount="3488">
   <si>
     <r>
       <t xml:space="preserve">Siła elektromotoryczna ogniwa wynosi 1,5 V. </t>
@@ -28271,6 +28271,98 @@
   <si>
     <t>Patrz d1-153
 Odpowiedź od Mariana SQ4MN</t>
+  </si>
+  <si>
+    <t>[rsmolik]
+np. https://www.monolithicpower.com/en/analog-to-digital-converters/introduction-to-adcs/key-parameters-of-adcs</t>
+  </si>
+  <si>
+    <t>[rsmolik]
+Gdzieś to widziałem, ale nie pamiętam źródła (dla 500Hz stale trzeba byłoby przestarajać odbiornik w przypadku modulacji wąskopasmowych CW, PSK31)</t>
+  </si>
+  <si>
+    <t>[rsmolik]
+teoretycznie jest nieskończone sin(x)/x</t>
+  </si>
+  <si>
+    <t>[rsmolik]
+por. jitter i pytanie 54</t>
+  </si>
+  <si>
+    <t>[rsmolik]
+4x większe natężenie, to 16x większa moc czyli 12dBd</t>
+  </si>
+  <si>
+    <t>[rsmolik]
+EIRP (dBm) = ERP (dBm) + 2.15</t>
+  </si>
+  <si>
+    <t>[rsmolik]
+z dala od przedmiotów teoretycznie nie powinna promieniować.</t>
+  </si>
+  <si>
+    <t>[rsmolik]
+Skoro do obciążenia dochodzi energia z nadajnika, to w po ekranie musi płynąć prąd (ten prąd będzie troche wnikał  w ekran)</t>
+  </si>
+  <si>
+    <t>[rsmolik]
+tłumienie linii zasilającej powoduje, że tylko część sygnału odbitego wróci do nadajnika (mierzony SWR będzie mniejszy)</t>
+  </si>
+  <si>
+    <t>[rsmolik]
+patrz pytanie 121</t>
+  </si>
+  <si>
+    <t>[rsmolik]
+https://hf5l.pl/wp-content/uploads/2020/07/Licencja_i_co_dalej.pdf</t>
+  </si>
+  <si>
+    <t>[rsmolik]
+https://hf5l.pl/wp-content/uploads/2020/07/Licencja_i_co_dalej.pdf strona 104</t>
+  </si>
+  <si>
+    <t>[rsmolik]</t>
+  </si>
+  <si>
+    <t>[rsmolik]
+Napięcie skuteczne wynosi ok. 71V</t>
+  </si>
+  <si>
+    <t>[rsmolik]
+Poniżej 10MHz Emisję SSB (J3E) realizuje się modulacją LSB (a emisje cyfrowe – USB)</t>
+  </si>
+  <si>
+    <t>[rsmolik]
+Dz.U. 2015 poz.10 § 5. pkt 3) a</t>
+  </si>
+  <si>
+    <t>[rsmolik]
+Dz.U. 2015 poz.10 § 4. pkt 2)</t>
+  </si>
+  <si>
+    <t>[rsmolik]
+Dz.U. 2015 poz. 10 § 4. pkt 1)</t>
+  </si>
+  <si>
+    <t>[rsmolik]
+https://docdb.cept.org/download/2ae38a89-e58a/TR6101.pdf</t>
+  </si>
+  <si>
+    <t>[rsmolik]
+https://hf5l.pl/wp-content/uploads/2020/07/Licencja_i_co_dalej.pdf strona 23</t>
+  </si>
+  <si>
+    <t>[rsmolik]
+https://bip.uke.gov.pl/download/gfx/bip/pl/defaultaktualnosci/125/6/24/formularz_ra-1-i.pdf</t>
+  </si>
+  <si>
+    <t>[ChatGPT]
+Filtr antyaliasingowy w odbiorniku SDR (Software Defined Radio) jest niezbędny do eliminacji aliasingu, który występuje, gdy sygnał analogowy zawiera składowe częstotliwości wyższe niż połowa częstotliwości próbkowania. Realizacja tego filtru może przybrać różne formy:
+1. **Filtry Analogowe** przed przetwornikiem analogowo-cyfrowym (ADC) ograniczają pasmo sygnału wejściowego, wykorzystując różne topologie filtrów.
+2. **Filtry Cyfrowe** mogą być zastosowane po początkowym próbkowaniu sygnału z wysoką częstotliwością, umożliwiając decymację i dalszą filtrację antyaliasingową.
+3. **Oversampling i Decymacja** polegają na próbkowaniu sygnału z częstotliwością znacznie wyższą niż teoria Nyquista wymaga, a następnie na redukcji częstotliwości próbkowania, jednocześnie filtrując aliasing.
+4. **Programowalne Filtry Cyfrowe**, takie jak w FPGA lub DSP, pozwalają na dynamiczną zmianę charakterystyk filtru w zależności od potrzeb.
+Wybór metody zależy od czynników takich jak zakres częstotliwości, wymagania dokładności, koszty i złożoność systemu. Często stosuje się kombinację tych metod dla optymalizacji wydajności.</t>
   </si>
 </sst>
 </file>
@@ -30649,7 +30741,7 @@
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -30671,9 +30763,11 @@
         <v>599</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J45" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>3466</v>
+      </c>
       <c r="K45" s="7" t="s">
         <v>21</v>
       </c>
@@ -33149,7 +33243,7 @@
         <v>2745</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -33170,8 +33264,12 @@
       <c r="H107" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
+      <c r="I107" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>3467</v>
+      </c>
       <c r="K107" s="7" t="s">
         <v>21</v>
       </c>
@@ -38518,8 +38616,12 @@
       <c r="H245" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="I245" s="2"/>
-      <c r="J245" s="2"/>
+      <c r="I245" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J245" s="2" t="s">
+        <v>3468</v>
+      </c>
       <c r="K245" s="7" t="s">
         <v>21</v>
       </c>
@@ -38830,7 +38932,7 @@
       <c r="N253" s="9"/>
       <c r="O253" s="9"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -38854,7 +38956,9 @@
       <c r="I254" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J254" s="2"/>
+      <c r="J254" s="2" t="s">
+        <v>3487</v>
+      </c>
       <c r="K254" s="7" t="s">
         <v>21</v>
       </c>
@@ -39972,10 +40076,10 @@
         <v>404</v>
       </c>
       <c r="I284" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J284" s="2" t="s">
-        <v>3462</v>
+        <v>3469</v>
       </c>
       <c r="K284" s="7" t="s">
         <v>21</v>
@@ -40545,9 +40649,11 @@
         <v>389</v>
       </c>
       <c r="I299" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J299" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="J299" s="2" t="s">
+        <v>3470</v>
+      </c>
       <c r="K299" s="7" t="s">
         <v>21</v>
       </c>
@@ -40657,8 +40763,12 @@
       <c r="H302" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="I302" s="2"/>
-      <c r="J302" s="2"/>
+      <c r="I302" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J302" s="2" t="s">
+        <v>3471</v>
+      </c>
       <c r="K302" s="7" t="s">
         <v>21</v>
       </c>
@@ -40866,7 +40976,7 @@
       <c r="N307" s="9"/>
       <c r="O307" s="9"/>
     </row>
-    <row r="308" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -40887,8 +40997,12 @@
       <c r="H308" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="I308" s="2"/>
-      <c r="J308" s="2"/>
+      <c r="I308" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J308" s="2" t="s">
+        <v>3472</v>
+      </c>
       <c r="K308" s="7" t="s">
         <v>21</v>
       </c>
@@ -40942,7 +41056,7 @@
       </c>
       <c r="O309" s="9"/>
     </row>
-    <row r="310" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -40964,10 +41078,10 @@
         <v>378</v>
       </c>
       <c r="I310" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J310" s="2" t="s">
-        <v>3462</v>
+        <v>3473</v>
       </c>
       <c r="K310" s="7" t="s">
         <v>21</v>
@@ -40983,7 +41097,7 @@
       </c>
       <c r="O310" s="9"/>
     </row>
-    <row r="311" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -41004,8 +41118,12 @@
       <c r="H311" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="I311" s="2"/>
-      <c r="J311" s="2"/>
+      <c r="I311" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J311" s="2" t="s">
+        <v>3474</v>
+      </c>
       <c r="K311" s="7" t="s">
         <v>21</v>
       </c>
@@ -41076,8 +41194,12 @@
       <c r="H313" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="I313" s="2"/>
-      <c r="J313" s="2"/>
+      <c r="I313" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J313" s="2" t="s">
+        <v>3475</v>
+      </c>
       <c r="K313" s="7" t="s">
         <v>21</v>
       </c>
@@ -41205,7 +41327,7 @@
       </c>
       <c r="O316" s="9"/>
     </row>
-    <row r="317" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -41227,9 +41349,11 @@
         <v>371</v>
       </c>
       <c r="I317" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J317" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="J317" s="2" t="s">
+        <v>3476</v>
+      </c>
       <c r="K317" s="7" t="s">
         <v>21</v>
       </c>
@@ -41398,7 +41522,7 @@
       </c>
       <c r="O321" s="9"/>
     </row>
-    <row r="322" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -41420,9 +41544,11 @@
         <v>366</v>
       </c>
       <c r="I322" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J322" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="J322" s="2" t="s">
+        <v>3485</v>
+      </c>
       <c r="K322" s="7" t="s">
         <v>21</v>
       </c>
@@ -41669,7 +41795,7 @@
       <c r="N328" s="9"/>
       <c r="O328" s="9"/>
     </row>
-    <row r="329" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -41690,8 +41816,12 @@
       <c r="H329" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="I329" s="2"/>
-      <c r="J329" s="2"/>
+      <c r="I329" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J329" s="2" t="s">
+        <v>3477</v>
+      </c>
       <c r="K329" s="7" t="s">
         <v>21</v>
       </c>
@@ -41921,9 +42051,11 @@
         <v>353</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J335" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="J335" s="2" t="s">
+        <v>3478</v>
+      </c>
       <c r="K335" s="7" t="s">
         <v>21</v>
       </c>
@@ -45187,8 +45319,12 @@
       <c r="H422" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="I422" s="2"/>
-      <c r="J422" s="2"/>
+      <c r="I422" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J422" s="2" t="s">
+        <v>3479</v>
+      </c>
       <c r="K422" s="7" t="s">
         <v>21</v>
       </c>
@@ -50597,8 +50733,12 @@
       <c r="H558" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I558" s="2"/>
-      <c r="J558" s="2"/>
+      <c r="I558" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J558" s="2" t="s">
+        <v>3478</v>
+      </c>
       <c r="K558" s="7" t="s">
         <v>21</v>
       </c>
@@ -51402,8 +51542,12 @@
       <c r="H579" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I579" s="2"/>
-      <c r="J579" s="2"/>
+      <c r="I579" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J579" s="2" t="s">
+        <v>3480</v>
+      </c>
       <c r="K579" s="7" t="s">
         <v>21</v>
       </c>
@@ -52760,8 +52904,12 @@
       <c r="H611" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I611" s="2"/>
-      <c r="J611" s="2"/>
+      <c r="I611" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J611" s="2" t="s">
+        <v>3481</v>
+      </c>
       <c r="K611" s="7" t="s">
         <v>21</v>
       </c>
@@ -52797,8 +52945,12 @@
       <c r="H612" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I612" s="2"/>
-      <c r="J612" s="2"/>
+      <c r="I612" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J612" s="2" t="s">
+        <v>3482</v>
+      </c>
       <c r="K612" s="7" t="s">
         <v>21</v>
       </c>
@@ -52813,7 +52965,7 @@
       </c>
       <c r="O612" s="9"/>
     </row>
-    <row r="613" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>612</v>
       </c>
@@ -52834,8 +52986,12 @@
       <c r="H613" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I613" s="2"/>
-      <c r="J613" s="2"/>
+      <c r="I613" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J613" s="2" t="s">
+        <v>3486</v>
+      </c>
       <c r="K613" s="7" t="s">
         <v>21</v>
       </c>
@@ -52910,8 +53066,12 @@
       <c r="H615" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I615" s="2"/>
-      <c r="J615" s="2"/>
+      <c r="I615" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J615" s="2" t="s">
+        <v>3483</v>
+      </c>
       <c r="K615" s="7" t="s">
         <v>21</v>
       </c>
@@ -54157,7 +54317,7 @@
       </c>
       <c r="O646" s="9"/>
     </row>
-    <row r="647" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>646</v>
       </c>
@@ -54178,8 +54338,12 @@
       <c r="H647" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I647" s="2"/>
-      <c r="J647" s="2"/>
+      <c r="I647" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J647" s="2" t="s">
+        <v>3484</v>
+      </c>
       <c r="K647" s="7" t="s">
         <v>21</v>
       </c>
@@ -68038,7 +68202,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>2751</v>
       </c>
@@ -68055,9 +68219,11 @@
         <v>599</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G45" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>3466</v>
+      </c>
       <c r="H45" s="1" t="s">
         <v>1659</v>
       </c>
@@ -69772,7 +69938,7 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>2599</v>
       </c>
@@ -69788,8 +69954,12 @@
       <c r="E105" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
+      <c r="F105" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>3467</v>
+      </c>
       <c r="H105" s="1" t="s">
         <v>1659</v>
       </c>
@@ -73462,8 +73632,12 @@
       <c r="E237" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="F237" s="1"/>
-      <c r="G237" s="1"/>
+      <c r="F237" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>3468</v>
+      </c>
       <c r="H237" s="1" t="s">
         <v>1659</v>
       </c>
@@ -73640,7 +73814,7 @@
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>3056</v>
       </c>
@@ -73659,7 +73833,9 @@
       <c r="F244" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G244" s="1"/>
+      <c r="G244" s="1" t="s">
+        <v>3487</v>
+      </c>
       <c r="H244" s="1" t="s">
         <v>1659</v>
       </c>
@@ -74423,10 +74599,10 @@
         <v>404</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>3462</v>
+        <v>3469</v>
       </c>
       <c r="H271" s="1" t="s">
         <v>1659</v>
@@ -74868,7 +75044,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>3014</v>
       </c>
@@ -74885,9 +75061,11 @@
         <v>389</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G287" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>3470</v>
+      </c>
       <c r="H287" s="1" t="s">
         <v>1659</v>
       </c>
@@ -74970,8 +75148,12 @@
       <c r="E290" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="F290" s="1"/>
-      <c r="G290" s="1"/>
+      <c r="F290" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>3471</v>
+      </c>
       <c r="H290" s="1" t="s">
         <v>1659</v>
       </c>
@@ -75094,7 +75276,7 @@
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
     </row>
-    <row r="295" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>3005</v>
       </c>
@@ -75110,8 +75292,12 @@
       <c r="E295" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="F295" s="1"/>
-      <c r="G295" s="1"/>
+      <c r="F295" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>3472</v>
+      </c>
       <c r="H295" s="1" t="s">
         <v>1659</v>
       </c>
@@ -75152,7 +75338,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>3003</v>
       </c>
@@ -75169,10 +75355,10 @@
         <v>378</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>3462</v>
+        <v>3473</v>
       </c>
       <c r="H297" s="1" t="s">
         <v>1659</v>
@@ -75184,7 +75370,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>3002</v>
       </c>
@@ -75200,8 +75386,12 @@
       <c r="E298" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="F298" s="1"/>
-      <c r="G298" s="1"/>
+      <c r="F298" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>3474</v>
+      </c>
       <c r="H298" s="1" t="s">
         <v>1659</v>
       </c>
@@ -75254,8 +75444,12 @@
       <c r="E300" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="F300" s="1"/>
-      <c r="G300" s="1"/>
+      <c r="F300" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>3475</v>
+      </c>
       <c r="H300" s="1" t="s">
         <v>1659</v>
       </c>
@@ -75352,7 +75546,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>2996</v>
       </c>
@@ -75369,9 +75563,11 @@
         <v>371</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G304" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>3476</v>
+      </c>
       <c r="H304" s="1" t="s">
         <v>1659</v>
       </c>
@@ -75496,7 +75692,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>2991</v>
       </c>
@@ -75513,9 +75709,11 @@
         <v>366</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G309" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>3485</v>
+      </c>
       <c r="H309" s="1" t="s">
         <v>1659</v>
       </c>
@@ -75700,7 +75898,7 @@
       <c r="I315" s="1"/>
       <c r="J315" s="1"/>
     </row>
-    <row r="316" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>2984</v>
       </c>
@@ -75716,8 +75914,12 @@
       <c r="E316" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="F316" s="1"/>
-      <c r="G316" s="1"/>
+      <c r="F316" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>3477</v>
+      </c>
       <c r="H316" s="1" t="s">
         <v>1659</v>
       </c>
@@ -75889,9 +76091,11 @@
         <v>353</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G322" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="G322" s="1" t="s">
+        <v>3478</v>
+      </c>
       <c r="H322" s="1" t="s">
         <v>1659</v>
       </c>
@@ -76808,7 +77012,7 @@
         <v>2952</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>2950</v>
       </c>
@@ -76824,8 +77028,12 @@
       <c r="E354" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F354" s="1"/>
-      <c r="G354" s="1"/>
+      <c r="F354" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G354" s="1" t="s">
+        <v>3479</v>
+      </c>
       <c r="H354" s="1" t="s">
         <v>1659</v>
       </c>
@@ -79902,8 +80110,12 @@
       <c r="E457" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F457" s="1"/>
-      <c r="G457" s="1"/>
+      <c r="F457" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G457" s="1" t="s">
+        <v>3478</v>
+      </c>
       <c r="H457" s="1" t="s">
         <v>1659</v>
       </c>
@@ -80022,7 +80234,7 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="462" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>2844</v>
       </c>
@@ -80038,8 +80250,12 @@
       <c r="E462" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F462" s="1"/>
-      <c r="G462" s="1"/>
+      <c r="F462" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G462" s="1" t="s">
+        <v>3480</v>
+      </c>
       <c r="H462" s="1" t="s">
         <v>1659</v>
       </c>
@@ -80990,8 +81206,12 @@
       <c r="E494" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F494" s="1"/>
-      <c r="G494" s="1"/>
+      <c r="F494" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G494" s="1" t="s">
+        <v>3481</v>
+      </c>
       <c r="H494" s="1" t="s">
         <v>1659</v>
       </c>
@@ -81018,8 +81238,12 @@
       <c r="E495" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F495" s="1"/>
-      <c r="G495" s="1"/>
+      <c r="F495" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G495" s="1" t="s">
+        <v>3482</v>
+      </c>
       <c r="H495" s="1" t="s">
         <v>1659</v>
       </c>
@@ -81030,7 +81254,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="496" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>2810</v>
       </c>
@@ -81046,8 +81270,12 @@
       <c r="E496" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F496" s="1"/>
-      <c r="G496" s="1"/>
+      <c r="F496" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G496" s="1" t="s">
+        <v>3486</v>
+      </c>
       <c r="H496" s="1" t="s">
         <v>1659</v>
       </c>
@@ -81104,8 +81332,12 @@
       <c r="E498" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F498" s="1"/>
-      <c r="G498" s="1"/>
+      <c r="F498" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G498" s="1" t="s">
+        <v>3483</v>
+      </c>
       <c r="H498" s="1" t="s">
         <v>1659</v>
       </c>
@@ -81898,7 +82130,7 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="525" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>2781</v>
       </c>
@@ -81914,8 +82146,12 @@
       <c r="E525" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F525" s="1"/>
-      <c r="G525" s="1"/>
+      <c r="F525" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G525" s="1" t="s">
+        <v>3484</v>
+      </c>
       <c r="H525" s="1" t="s">
         <v>1659</v>
       </c>
@@ -82051,7 +82287,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J530" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="G39" r:id="rId1" display="https://pl.fmuser.net/content/?7541.html" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>

--- a/UKE_porownanie_pytan.xlsx
+++ b/UKE_porownanie_pytan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\PycharmProjects\skrypty\UKE-nowe-pytania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85981E07-AD50-4FEA-80AC-A2361BA65539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81C236F-D28D-4FA7-876B-9A89E79DE6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14557" uniqueCount="3488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14569" uniqueCount="3491">
   <si>
     <r>
       <t xml:space="preserve">Siła elektromotoryczna ogniwa wynosi 1,5 V. </t>
@@ -28363,6 +28363,23 @@
 3. **Oversampling i Decymacja** polegają na próbkowaniu sygnału z częstotliwością znacznie wyższą niż teoria Nyquista wymaga, a następnie na redukcji częstotliwości próbkowania, jednocześnie filtrując aliasing.
 4. **Programowalne Filtry Cyfrowe**, takie jak w FPGA lub DSP, pozwalają na dynamiczną zmianę charakterystyk filtru w zależności od potrzeb.
 Wybór metody zależy od czynników takich jak zakres częstotliwości, wymagania dokładności, koszty i złożoność systemu. Często stosuje się kombinację tych metod dla optymalizacji wydajności.</t>
+  </si>
+  <si>
+    <t>Paragraf 2 rozporządzenia Ministra Administracji i Cyfryzacji z dnia 10 grudnia 2014 r. w sprawie pozwoleń dla służby radiokomunikacyjnej amatorskiej</t>
+  </si>
+  <si>
+    <t>Generalnie to pytanie jest sformuowane w sposób nieoczywisty. Jak nadajemy w ramach zakresu częstotliwości amatorskich, z odpowiednią mocą, ale z inną modulacją, to jest narusznie dobrych obyczajów. Ale jak wyjdziemy poza nasze zakresy częstotliwości to może być naruszenie prawa. Pewnie to pytaniem można by sformuować bardziej jednoznacznie. Dziękuję [rsmolik] za pomoc :-)
+[ChatGPT]
+Bandplan IARU (Międzynarodowej Unii Radioamatorskiej) jest zbiorem zaleceń dotyczących wykorzystania pasm amatorskich, mających na celu zapewnienie ich efektywnego użytkowania i minimalizację zakłóceń między użytkownikami. Bandplany te są ustalane przez radioamatorów na poziomie międzynarodowym i odzwierciedlają najlepsze praktyki w zakresie korzystania z pasm.
+Chociaż bandplany IARU mają charakter zaleceń, a nie prawnie wiążących przepisów, w wielu krajach krajowe przepisy regulujące użytkowanie pasm przez radioamatorów są dostosowane do tych zaleceń. Oznacza to, że działalność sprzeczna z bandplanem może prowadzić do zakłóceń i jest generalnie uznawana za niezgodną z dobrymi praktykami radioamatorskimi. W niektórych przypadkach, naruszenie zasad określonych w bandplanie może być również traktowane jako naruszenie lokalnych przepisów telekomunikacyjnych, jeżeli te przepisy bezpośrednio odwołują się do zaleceń IARU lub w inny sposób regulują użytkowanie pasm.
+Działanie sprzeczne z bandplanem może skutkować różnymi konsekwencjami, takimi jak:
+- Interwencje ze strony krajowego regulatora (np. Urzędu Komunikacji Elektronicznej w Polsce), który może nałożyć kary administracyjne lub nawet odebrać licencję radioamatorską.
+- Krytyka i ostracyzm ze strony innych członków społeczności radioamatorskiej, co może wpłynąć na możliwość współpracy w przyszłości.
+Z tego powodu zdecydowana większość radioamatorów przestrzega bandplanów IARU, aby utrzymać dobre relacje z innymi użytkownikami pasm i unikać problemów prawnych oraz operacyjnych.</t>
+  </si>
+  <si>
+    <t>Regulamin Radiokomunikacyjny ITU, Art.. 15 Sekcja I, 15.1
+Dzięki [rsmolik] za pomoc</t>
   </si>
 </sst>
 </file>
@@ -50439,7 +50456,7 @@
       </c>
       <c r="O550" s="9"/>
     </row>
-    <row r="551" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>550</v>
       </c>
@@ -50460,8 +50477,12 @@
       <c r="H551" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I551" s="2"/>
-      <c r="J551" s="2"/>
+      <c r="I551" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J551" s="2" t="s">
+        <v>3489</v>
+      </c>
       <c r="K551" s="7" t="s">
         <v>21</v>
       </c>
@@ -52867,8 +52888,12 @@
       <c r="H610" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I610" s="2"/>
-      <c r="J610" s="2"/>
+      <c r="I610" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J610" s="2" t="s">
+        <v>3488</v>
+      </c>
       <c r="K610" s="7" t="s">
         <v>21</v>
       </c>
@@ -54379,8 +54404,12 @@
       <c r="H648" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I648" s="2"/>
-      <c r="J648" s="2"/>
+      <c r="I648" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J648" s="2" t="s">
+        <v>3490</v>
+      </c>
       <c r="K648" s="7" t="s">
         <v>21</v>
       </c>
@@ -55172,7 +55201,7 @@
   <dimension ref="A1:J422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -79886,7 +79915,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="450" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>2855</v>
       </c>
@@ -79902,8 +79931,12 @@
       <c r="E450" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F450" s="1"/>
-      <c r="G450" s="1"/>
+      <c r="F450" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G450" s="1" t="s">
+        <v>3489</v>
+      </c>
       <c r="H450" s="1" t="s">
         <v>1659</v>
       </c>
@@ -81178,8 +81211,12 @@
       <c r="E493" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F493" s="1"/>
-      <c r="G493" s="1"/>
+      <c r="F493" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G493" s="1" t="s">
+        <v>3488</v>
+      </c>
       <c r="H493" s="1" t="s">
         <v>1659</v>
       </c>
@@ -82178,8 +82215,12 @@
       <c r="E526" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F526" s="1"/>
-      <c r="G526" s="1"/>
+      <c r="F526" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G526" s="1" t="s">
+        <v>3490</v>
+      </c>
       <c r="H526" s="1" t="s">
         <v>1659</v>
       </c>

--- a/UKE_porownanie_pytan.xlsx
+++ b/UKE_porownanie_pytan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\PycharmProjects\skrypty\UKE-nowe-pytania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81C236F-D28D-4FA7-876B-9A89E79DE6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13234172-FC6B-4E7D-98E9-0EC0920F5662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14569" uniqueCount="3491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14572" uniqueCount="3492">
   <si>
     <r>
       <t xml:space="preserve">Siła elektromotoryczna ogniwa wynosi 1,5 V. </t>
@@ -28380,6 +28380,9 @@
   <si>
     <t>Regulamin Radiokomunikacyjny ITU, Art.. 15 Sekcja I, 15.1
 Dzięki [rsmolik] za pomoc</t>
+  </si>
+  <si>
+    <t>Regulamin Radiokomunikacyjny ITU, Załącznik 42 (tom 2, część 2), Tablica Przeznaczeń Międzynarodowych Serii Sygnałów Wywoławczych</t>
   </si>
 </sst>
 </file>
@@ -54186,7 +54189,7 @@
       </c>
       <c r="O642" s="9"/>
     </row>
-    <row r="643" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>642</v>
       </c>
@@ -54210,7 +54213,9 @@
       <c r="I643" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J643" s="2"/>
+      <c r="J643" s="2" t="s">
+        <v>3491</v>
+      </c>
       <c r="K643" s="7" t="s">
         <v>21</v>
       </c>
@@ -67292,7 +67297,9 @@
       <c r="F12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>3458</v>
+      </c>
       <c r="H12" s="1" t="s">
         <v>1659</v>
       </c>
@@ -82047,7 +82054,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>2785</v>
       </c>
@@ -82066,7 +82073,9 @@
       <c r="F521" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G521" s="1"/>
+      <c r="G521" s="1" t="s">
+        <v>3491</v>
+      </c>
       <c r="H521" s="1" t="s">
         <v>1659</v>
       </c>

--- a/UKE_porownanie_pytan.xlsx
+++ b/UKE_porownanie_pytan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\PycharmProjects\skrypty\UKE-nowe-pytania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13234172-FC6B-4E7D-98E9-0EC0920F5662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216B67E8-0394-42D8-A43C-3078B910C4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TYTUL" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14572" uniqueCount="3492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14576" uniqueCount="3495">
   <si>
     <r>
       <t xml:space="preserve">Siła elektromotoryczna ogniwa wynosi 1,5 V. </t>
@@ -28384,12 +28384,21 @@
   <si>
     <t>Regulamin Radiokomunikacyjny ITU, Załącznik 42 (tom 2, część 2), Tablica Przeznaczeń Międzynarodowych Serii Sygnałów Wywoławczych</t>
   </si>
+  <si>
+    <t>np. https://chatgpt.com</t>
+  </si>
+  <si>
+    <t>Różne modele językowe, LLMy nieźle radzą sobie z rozwiązywaniem zadań</t>
+  </si>
+  <si>
+    <t>[mrkobel] Prawidłowa odpowiedź to 2W (A, zamiast C). Również kalkulatory online podają taką odpowiedź jako prawidłową (np. https://www.everythingrf.com/rf-calculators/dbm-to-watts)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28422,6 +28431,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -28496,7 +28513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -28536,6 +28553,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -28841,9 +28861,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -28916,111 +28936,119 @@
         <v>3460</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>3493</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
         <v>3424</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>3446</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>3453</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="9">
-        <f>COUNTIFS(porownanie!K:K,TYTUL!C13,porownanie!L:L,"A")</f>
-        <v>184</v>
-      </c>
-      <c r="E13" s="9">
-        <f>COUNTIFS(porownanie!K:K,TYTUL!C13,porownanie!M:M,"C")</f>
-        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D14" s="9">
         <f>COUNTIFS(porownanie!K:K,TYTUL!C14,porownanie!L:L,"A")</f>
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="E14" s="9">
         <f>COUNTIFS(porownanie!K:K,TYTUL!C14,porownanie!M:M,"C")</f>
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="D15" s="9">
         <f>COUNTIFS(porownanie!K:K,TYTUL!C15,porownanie!L:L,"A")</f>
-        <v>147</v>
+        <v>224</v>
       </c>
       <c r="E15" s="9">
         <f>COUNTIFS(porownanie!K:K,TYTUL!C15,porownanie!M:M,"C")</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="9">
         <f>COUNTIFS(porownanie!K:K,TYTUL!C16,porownanie!L:L,"A")</f>
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="E16" s="9">
         <f>COUNTIFS(porownanie!K:K,TYTUL!C16,porownanie!M:M,"C")</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="9">
+        <f>COUNTIFS(porownanie!K:K,TYTUL!C17,porownanie!L:L,"A")</f>
+        <v>108</v>
+      </c>
+      <c r="E17" s="9">
+        <f>COUNTIFS(porownanie!K:K,TYTUL!C17,porownanie!M:M,"C")</f>
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="5" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
         <v>3423</v>
       </c>
-      <c r="D17" s="5">
-        <f>SUM(D13:D16)</f>
+      <c r="D18" s="5">
+        <f>SUM(D14:D17)</f>
         <v>663</v>
       </c>
-      <c r="E17" s="5">
-        <f>SUM(E13:E16)</f>
+      <c r="E18" s="5">
+        <f>SUM(E14:E17)</f>
         <v>433</v>
       </c>
     </row>
@@ -29031,7 +29059,7 @@
     <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29041,7 +29069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O668"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -35028,7 +35056,7 @@
       </c>
       <c r="O149" s="9"/>
     </row>
-    <row r="150" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -35051,10 +35079,12 @@
       <c r="H150" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="I150" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J150" s="1"/>
+      <c r="I150" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>3494</v>
+      </c>
       <c r="K150" s="8" t="s">
         <v>23</v>
       </c>
@@ -71168,7 +71198,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>2693</v>
       </c>
@@ -71185,9 +71215,11 @@
         <v>435</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G146" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>3494</v>
+      </c>
       <c r="H146" s="1" t="s">
         <v>1659</v>
       </c>

--- a/UKE_porownanie_pytan.xlsx
+++ b/UKE_porownanie_pytan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\PycharmProjects\skrypty\UKE-nowe-pytania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216B67E8-0394-42D8-A43C-3078B910C4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87C400E-72C7-4370-BC2F-69049B03B980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14576" uniqueCount="3495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14580" uniqueCount="3497">
   <si>
     <r>
       <t xml:space="preserve">Siła elektromotoryczna ogniwa wynosi 1,5 V. </t>
@@ -28392,6 +28392,15 @@
   </si>
   <si>
     <t>[mrkobel] Prawidłowa odpowiedź to 2W (A, zamiast C). Również kalkulatory online podają taką odpowiedź jako prawidłową (np. https://www.everythingrf.com/rf-calculators/dbm-to-watts)</t>
+  </si>
+  <si>
+    <t>[mrkobel] wg. chat gpt prawidłowa odpowiedź to B.
+Więcej informacji również tutaj:
+https://sklep.delta.poznan.pl/dbi-zysk-energetyczny-anteny-izotropowej_l1_aid836.html</t>
+  </si>
+  <si>
+    <t>[mrkobel] Za Wikipedią:
+https://en.wikipedia.org/wiki/Maximum_usable_frequency</t>
   </si>
 </sst>
 </file>
@@ -40870,7 +40879,7 @@
       </c>
       <c r="O303" s="9"/>
     </row>
-    <row r="304" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -40892,9 +40901,11 @@
         <v>384</v>
       </c>
       <c r="I304" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J304" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="J304" s="2" t="s">
+        <v>3495</v>
+      </c>
       <c r="K304" s="7" t="s">
         <v>21</v>
       </c>
@@ -41533,7 +41544,7 @@
       </c>
       <c r="O320" s="9"/>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -41555,9 +41566,11 @@
         <v>367</v>
       </c>
       <c r="I321" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J321" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="J321" s="2" t="s">
+        <v>3496</v>
+      </c>
       <c r="K321" s="7" t="s">
         <v>21</v>
       </c>
@@ -75228,7 +75241,7 @@
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
     </row>
-    <row r="291" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>3009</v>
       </c>
@@ -75245,9 +75258,11 @@
         <v>384</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G291" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>3495</v>
+      </c>
       <c r="H291" s="1" t="s">
         <v>1659</v>
       </c>
@@ -75730,7 +75745,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>2992</v>
       </c>
@@ -75747,9 +75762,11 @@
         <v>367</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G308" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>3496</v>
+      </c>
       <c r="H308" s="1" t="s">
         <v>1659</v>
       </c>
